--- a/biology/Histoire de la zoologie et de la botanique/Giacomo_Zanoni/Giacomo_Zanoni.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giacomo_Zanoni/Giacomo_Zanoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giacomo Zanoni est un botaniste italien, né en 1615 à Montecchio et mort en 1682.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giacomo Zanoni naquit à Montecchio, dans la Lombardie, en 1615. Son père, qui exerçait dans cette ville la profession d’apothicaire, l’ayant laissé orphelin en bas âge, il fut élevé sous les yeux de son oncle et de sa mère avec beaucoup de soin, et apporta dans toutes ses études un zèle et une facilité peu ordinaires ; mais ce fut surtout à la botanique qu’il se livra avec ardeur. Ses parents, qui voyaient dans cette science la base de la pharmacie, secondèrent ses dispositions et son goût. À vingt ans, il fut envoyé à Bologne, où il herborisa avec le savant Ambrosini, dont il devint le disciple favori et presque l’émule.
 Aussi, à vingt-sept ans, fut-il nommé par les administrateurs municipaux de cette ville gardien du jardin botanique, en remplacement du vieux Paolo Gatto, admis à la retraite, après quarante ans de services. Le jardin ne tarda pas à se ressentir du changement opéré dans la personne du directeur. Zanoni parcourait sans cesse avec toute l’activité du jeune âge les montagnes et les plaines des environs, pour leur enlever de nouvelles richesses. Il augmenta ainsi d’un grand nombre d’espèces, qui jusque-là avaient échappé aux recherches, les cartons du musée botanique. Il les pourvut aussi d’échantillons plus beaux ou plus remarquables que les précédents. Enfin il perfectionna la méthode de dessiccation, et facilita les moyens de conserver plus longtemps et avec plus de traits caractéristiques ces dépouilles flétries de l’empire végétal.
